--- a/submission/table_S10_otu_stats_dn1to0.xlsx
+++ b/submission/table_S10_otu_stats_dn1to0.xlsx
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>0.0005636410022130325</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G2">
-        <v>0.4504856212213804</v>
+        <v>0.413279382012139</v>
       </c>
       <c r="H2">
         <v>0.0003868851943715894</v>
@@ -443,10 +443,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.04796881581991966</v>
+        <v>0.009564097848077983</v>
       </c>
       <c r="G3">
-        <v>0.0001601927058921251</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.0003868851943715894</v>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>0.00192824553388669</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G4">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0.0003868851943715894</v>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>0.001702789133001477</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G5">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0.0003868851943715894</v>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>0.001904513281161931</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G6">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0.0003868851943715894</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.001969776976155019</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G7">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0.0003868851943715894</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.001382403721217227</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="G8">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0.0003868851943715894</v>
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>0.0007831643399170558</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G9">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0.0003868851943715894</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>0.0007534990240111067</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>0.002480020409737343</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G11">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0.0004356966259430153</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="F12">
-        <v>0.002711409873803746</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G12">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0.0004356966259430153</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>0.002290162387939269</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G13">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0.0004356966259430153</v>
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>0.003933620889128848</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="G14">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0.0004734687966743543</v>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>0.001245943268049861</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G15">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0.0004734687966743543</v>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>0.001821450396625274</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G16">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0.0004734687966743543</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="F17">
-        <v>0.0008068965926418151</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G17">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0.0004734687966743543</v>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>0.0253994434786736</v>
+        <v>0.01342652197903255</v>
       </c>
       <c r="G18">
-        <v>0.0007653651503734863</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0.0005437779203353798</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="F19">
-        <v>0.001999442292060968</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="G19">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0.0005437779203353798</v>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="F20">
-        <v>0.001186612636237963</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G20">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0.0005437779203353798</v>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>0.001085750562157736</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="F22">
-        <v>0.0009848884880775096</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G22">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0.0005437779203353798</v>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>0.004271805490456668</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="G23">
-        <v>0.0004034482963209075</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0.0005590714458838917</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>0.0003737829804149584</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="F25">
-        <v>0.001044219119889408</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G25">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0.0006333558695566149</v>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>0.0009492901089903706</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="F27">
-        <v>0.0007594320871922966</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G27">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0.0007002470364688502</v>
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="F28">
-        <v>0.002782606631978024</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="G28">
-        <v>0.0003322515381466297</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0.0007251420363572197</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>0.001560395616652922</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>0.0007001014553803984</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="F31">
-        <v>0.0004449797385892362</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G31">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0.000992588043095525</v>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>0.0007297667712863475</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="F33">
-        <v>0.000516176496763514</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G33">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0.001035660351944194</v>
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="F34">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.0434656208653966</v>
+        <v>0.0152657715652014</v>
       </c>
       <c r="H34">
         <v>0.001054654129920799</v>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="F35">
-        <v>0.006805223468824719</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G35">
-        <v>0.000160192705892125</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0.001054654129920799</v>
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.001180679573056773</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G36">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0.001054654129920799</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="F37">
-        <v>0.001026419930345838</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G37">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0.001054654129920799</v>
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="F38">
-        <v>0.002824138074246352</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="G38">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0.001113465305551073</v>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="F39">
-        <v>0.00452099414406664</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="G39">
-        <v>8.306288453665743e-05</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0.0014107769735965</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>0.0007534990240111067</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="F41">
-        <v>0.01636338825372152</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="G41">
-        <v>0.001512931111203403</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H41">
         <v>0.001551193130887034</v>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="F42">
-        <v>0.004254006300913099</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G42">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0.001551193130887034</v>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="F43">
-        <v>0.02690050846351463</v>
+        <v>0.0163693213169027</v>
       </c>
       <c r="G43">
-        <v>0.1372080191281957</v>
+        <v>0.09251425418429281</v>
       </c>
       <c r="H43">
         <v>0.001574118242500827</v>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>0.0003381846013278195</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.000551774875850653</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="F46">
-        <v>0.01374097432763561</v>
+        <v>0.004230274048188339</v>
       </c>
       <c r="G46">
-        <v>0.001109482814882496</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0.001689275985684496</v>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>0.0009789554248963198</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="F48">
-        <v>0.004574391712697349</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G48">
-        <v>0.0004093813595020974</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0.001715983087206747</v>
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="F49">
-        <v>0.001506998048022213</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G49">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0.001732217688266918</v>
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="F50">
-        <v>0.001667190753914338</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G50">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0.001732217688266918</v>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="F51">
-        <v>0.03509406871673777</v>
+        <v>0.01544969652381828</v>
       </c>
       <c r="G51">
-        <v>0.000225456400885213</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0.002150518111306862</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="F52">
-        <v>0.0311129833221594</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G52">
-        <v>0.000195791084979264</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0.002204257819422995</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>0.0003975152331397177</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="F54">
-        <v>0.0008721602876349031</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G54">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0.002204257819422995</v>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>0.001406135973941987</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="F56">
-        <v>0.0005280426231258937</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G56">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0.002988092886384602</v>
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="F57">
-        <v>0.001228144078506292</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G57">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0.003151545926183254</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="F58">
-        <v>0.0107803758002219</v>
+        <v>0.004965973882655877</v>
       </c>
       <c r="G58">
-        <v>0.001892647154799552</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0.00325815918620003</v>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="F59">
-        <v>0.006158519582075029</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G59">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0.004236887044003704</v>
@@ -2267,10 +2267,10 @@
         </is>
       </c>
       <c r="F60">
-        <v>0.001222211015325102</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G60">
-        <v>0.0002551217167911621</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0.004241144264681504</v>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="F61">
-        <v>0.002201166440221422</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G61">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0.004289636483188327</v>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="F62">
-        <v>0.0005102434335823242</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G62">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0.004346377718541427</v>
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="F63">
-        <v>0.0004153144226832871</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G63">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0.004346377718541427</v>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>0.0007594320871922964</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="F65">
-        <v>0.001726521385726237</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G65">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0.004787887377856176</v>
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="F66">
-        <v>0.003838691878229811</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G66">
-        <v>0.0001661257690733149</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0.004854219195265266</v>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="F68">
-        <v>0.001245943268049861</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G68">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0.005942370124650327</v>
@@ -2555,10 +2555,10 @@
         </is>
       </c>
       <c r="F69">
-        <v>0.001400202910760797</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G69">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0.005942370124650327</v>
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="F70">
-        <v>0.0005102434335823242</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G70">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0.005942370124650327</v>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>0.0009492901089903706</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="F72">
-        <v>0.0006882353290180187</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G72">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0.005942370124650327</v>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="F73">
-        <v>0.001044219119889408</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G73">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0.006092173014454506</v>
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="F74">
-        <v>0.0008068965926418151</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G74">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0.007008488909966607</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="F75">
-        <v>0.0003025862222406806</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G75">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0.007625275361039879</v>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="F76">
-        <v>0.03860050905682095</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G76">
-        <v>0.0001364604531673658</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0.007832819273846325</v>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>0.0005755071285754122</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>0.0002788539695159213</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="F79">
-        <v>0.03432870356636428</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0.009361725219668797</v>
@@ -2907,10 +2907,10 @@
         </is>
       </c>
       <c r="F80">
-        <v>0.03862424130954571</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0.01032811981464582</v>
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="F81">
-        <v>0.001056085246251787</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0.01092830196027459</v>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="F82">
-        <v>0.0004865111808575649</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0.01152526149292197</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="F83">
-        <v>0.02163194835861807</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0.01165664760604901</v>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>0.001050152183070597</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="F85">
-        <v>0.0004449797385892362</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0.0119226874578646</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="F86">
-        <v>0.0004568458649516159</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G86">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0.01256411805791119</v>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="F89">
-        <v>0.0007831643399170558</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G89">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0.01285600391947097</v>
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="F90">
-        <v>0.0004805781176763751</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>7.712982135546761e-05</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0.01430621668297473</v>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>0.0003025862222406806</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>0.0003144523486030603</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>0.0006823022658368289</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="F94">
-        <v>0.0002610547799723519</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0.01526739352450214</v>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="F95">
-        <v>0.0008662272244537132</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0.01551108023935088</v>
@@ -3419,10 +3419,10 @@
         </is>
       </c>
       <c r="F96">
-        <v>0.003969219268215987</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G96">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0.01578227900529517</v>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>5.933063181189816e-05</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="F98">
-        <v>0.0001245943268049862</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="F100">
-        <v>0.004574391712697349</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G100">
-        <v>0.0003500507276901991</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0.01866511794144425</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="F101">
-        <v>0.0006348377603873104</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0.01869443411300534</v>
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>0.000195791084979264</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>0.000225456400885213</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         </is>
       </c>
       <c r="F104">
-        <v>0.001234077141687482</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0.01976620567985908</v>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>0.01828570072442701</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>0.0005577079390318428</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>0.000901825603540852</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="F108">
-        <v>0.0005043103704011344</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0.01976620567985908</v>
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="F109">
-        <v>0.0009018256035408521</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0.01976620567985908</v>
@@ -3867,10 +3867,10 @@
         </is>
       </c>
       <c r="F110">
-        <v>0.002640213115629468</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0.01976620567985908</v>
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="F111">
-        <v>0.0004687119913139955</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0.01976620567985908</v>
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>0.0003441176645090094</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>0.001038286056708218</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="F114">
-        <v>0.0002432555904287825</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0.01976620567985908</v>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>0.0002313894640664028</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4059,10 +4059,10 @@
         </is>
       </c>
       <c r="F116">
-        <v>0.01986389553062351</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>0.0003203854117842501</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0.02251191846391866</v>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="F117">
-        <v>0.000937423982627991</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0.02251191846391866</v>
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="F118">
-        <v>0.02840157344835565</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>9.492901089903707e-05</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0.02427831802584064</v>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>0.0001542596427109352</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="F120">
-        <v>0.0006526369499308798</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>0.0006289046972061205</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>0.009570030911259174</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="F123">
-        <v>0.009831085691231527</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="F124">
-        <v>0.0006882353290180187</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="F125">
-        <v>0.0005102434335823242</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="F126">
-        <v>0.003678499172337686</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="F127">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0.02646696311006724</v>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="F128">
-        <v>0.003903955573222899</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="F129">
-        <v>0.003144523486030603</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="F130">
-        <v>0.0002491886536099723</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="F131">
-        <v>0.0003025862222406806</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4571,10 +4571,10 @@
         </is>
       </c>
       <c r="F132">
-        <v>0.0003915821699585279</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>0.02720553010782666</v>
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="F133">
-        <v>0.0001423935163485556</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0.02733530141624088</v>
@@ -4635,10 +4635,10 @@
         </is>
       </c>
       <c r="F134">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0.03194819930925095</v>
@@ -4667,10 +4667,10 @@
         </is>
       </c>
       <c r="F135">
-        <v>0.01887307397936481</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0.03394474300049008</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="F136">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="F137">
-        <v>0.0002195233377040232</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F138">
-        <v>0.0002432555904287824</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4795,10 +4795,10 @@
         </is>
       </c>
       <c r="F139">
-        <v>0.002248630945670941</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0.03617815770918251</v>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="F140">
-        <v>0.0009611562353527502</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F141">
-        <v>0.01320106557814734</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="F142">
-        <v>0.0005933063181189816</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0.03617815770918251</v>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="F143">
-        <v>0.0003500507276901992</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="F144">
-        <v>0.0002432555904287825</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F145">
-        <v>0.003625101603706978</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         </is>
       </c>
       <c r="F146">
-        <v>0.001210344888962723</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="F147">
-        <v>0.000225456400885213</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="F148">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="F149">
-        <v>0.002391024462019496</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G149">
-        <v>0.002859736453333491</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0.03658162145039946</v>
@@ -5147,10 +5147,10 @@
         </is>
       </c>
       <c r="F150">
-        <v>0.0001898580217980741</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0.04364429139362276</v>
@@ -5179,10 +5179,10 @@
         </is>
       </c>
       <c r="F151">
-        <v>0.0005695740653942224</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0.04479504844059246</v>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="F152">
-        <v>0.0004153144226832871</v>
+        <v>0</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="F153">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="F154">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -5307,10 +5307,10 @@
         </is>
       </c>
       <c r="F155">
-        <v>0.0003322515381466297</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>0.05030801834913551</v>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="F156">
-        <v>0.0001898580217980741</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="F157">
-        <v>0.000676369202655639</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="F158">
-        <v>0.0003263184749654399</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F159">
-        <v>0.0009136917299032317</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="F160">
-        <v>0.007279868523319905</v>
+        <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="F161">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -5531,10 +5531,10 @@
         </is>
       </c>
       <c r="F162">
-        <v>0.01359264774810587</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.0001245943268049862</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0.05943079011638203</v>
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="F163">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0.06117140204192918</v>
@@ -5595,10 +5595,10 @@
         </is>
       </c>
       <c r="F164">
-        <v>0.001156947320332014</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0.06187826484505756</v>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F165">
-        <v>8.306288453665743e-05</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5659,10 +5659,10 @@
         </is>
       </c>
       <c r="F166">
-        <v>0.00194011166024907</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>0.06947458331664784</v>
@@ -5691,10 +5691,10 @@
         </is>
       </c>
       <c r="F167">
-        <v>0.0003500507276901991</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>0.07085419758739471</v>
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="F168">
-        <v>0.001121348941244875</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>0.07112127815774529</v>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="F169">
-        <v>0.0002017241481604538</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="F170">
-        <v>0.0003678499172337686</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F171">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="F172">
-        <v>0.0001067951372614167</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="F173">
-        <v>0.0001720588322545047</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F174">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="F175">
-        <v>0.001886714091618362</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="F176">
-        <v>0.0003144523486030603</v>
+        <v>0</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F177">
-        <v>0.0001898580217980741</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6043,10 +6043,10 @@
         </is>
       </c>
       <c r="F178">
-        <v>0.003304716191922728</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>0.07189513298130316</v>
@@ -6075,10 +6075,10 @@
         </is>
       </c>
       <c r="F179">
-        <v>0.0001423935163485556</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>0.08189879751689916</v>
@@ -6107,10 +6107,10 @@
         </is>
       </c>
       <c r="F180">
-        <v>0.001251876331231051</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>0.0886142411471738</v>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="F181">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="F182">
-        <v>0.002984330780138478</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>0.000421247485864477</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>0.09369424566822758</v>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F183">
-        <v>5.933063181189816e-05</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="F184">
-        <v>5.933063181189816e-05</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -6267,10 +6267,10 @@
         </is>
       </c>
       <c r="F185">
-        <v>0.0001542596427109352</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>0.09371862202608894</v>
@@ -6299,10 +6299,10 @@
         </is>
       </c>
       <c r="F186">
-        <v>0.0001601927058921251</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0.09428208900225109</v>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="F187">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="F188">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="F189">
-        <v>0.0002551217167911621</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0.09722469198393589</v>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="F190">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="F191">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F192">
-        <v>0.0002491886536099723</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         </is>
       </c>
       <c r="F193">
-        <v>0.0001423935163485556</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="F194">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="F195">
-        <v>0.0003263184749654399</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="F196">
-        <v>0.0004687119913139955</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="F197">
-        <v>0.0008009635294606252</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>0.1008285926152015</v>
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F198">
-        <v>0.0004983773072199446</v>
+        <v>0</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="F199">
-        <v>0.002462221220193774</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="F200">
-        <v>0.0002313894640664028</v>
+        <v>0</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="F201">
-        <v>0.0003322515381466297</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>0.0002610547799723519</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>0.1090082776955367</v>
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="F202">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>0.001323073089405329</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0.1098470153142465</v>
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="F203">
-        <v>0.0004983773072199446</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>0.1108657774645684</v>
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="F204">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         </is>
       </c>
       <c r="F205">
-        <v>0.001435801289847936</v>
+        <v>0</v>
       </c>
       <c r="G205">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>0.1189348664203208</v>
@@ -6939,7 +6939,7 @@
         </is>
       </c>
       <c r="F206">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="F207">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="F208">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="F209">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7067,10 +7067,10 @@
         </is>
       </c>
       <c r="F210">
-        <v>0.0002729209063347316</v>
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>0.08700837155214866</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0.1359869176026489</v>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="F211">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         </is>
       </c>
       <c r="F212">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F213">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         </is>
       </c>
       <c r="F214">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="F215">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F216">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="F217">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -7323,10 +7323,10 @@
         </is>
       </c>
       <c r="F218">
-        <v>0.0004271805490456668</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>7.712982135546761e-05</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0.143160496943663</v>
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F219">
-        <v>0.000581440191756602</v>
+        <v>0</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="F220">
-        <v>0.0002313894640664028</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0.143375222932515</v>
@@ -7419,7 +7419,7 @@
         </is>
       </c>
       <c r="F221">
-        <v>0.0009492901089903706</v>
+        <v>0</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F222">
-        <v>0.0004331136122268566</v>
+        <v>0</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -7483,7 +7483,7 @@
         </is>
       </c>
       <c r="F223">
-        <v>0.0004449797385892362</v>
+        <v>0</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="F224">
-        <v>0.0008128296558230049</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -7547,10 +7547,10 @@
         </is>
       </c>
       <c r="F225">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>0.1455950253570288</v>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="F226">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="F227">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -7643,10 +7643,10 @@
         </is>
       </c>
       <c r="F228">
-        <v>0.0003737829804149584</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>0.1527288837034192</v>
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="F229">
-        <v>0.0001245943268049862</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0.1591707834755453</v>
@@ -7707,10 +7707,10 @@
         </is>
       </c>
       <c r="F230">
-        <v>0.05569959714500999</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>0.1164956955626621</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H230">
         <v>0.1837587307551626</v>
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="F231">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -7771,10 +7771,10 @@
         </is>
       </c>
       <c r="F232">
-        <v>0.0008068965926418151</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>0.185425855819524</v>
@@ -7803,10 +7803,10 @@
         </is>
       </c>
       <c r="F233">
-        <v>0.02029700914285036</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>0.1991754132100627</v>
@@ -7835,10 +7835,10 @@
         </is>
       </c>
       <c r="F234">
-        <v>0.003150456549211793</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>0.0005221095599447039</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>0.1991754132100627</v>
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="F235">
-        <v>0.003393712139640575</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>0.1991754132100627</v>
@@ -7899,7 +7899,7 @@
         </is>
       </c>
       <c r="F236">
-        <v>0.003328448444647487</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7931,10 +7931,10 @@
         </is>
       </c>
       <c r="F237">
-        <v>0.003209787181023691</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>0.1991754132100627</v>
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="F238">
-        <v>0.0003797160435961483</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="F239">
-        <v>0.0005399087494882733</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="F240">
-        <v>0.0008780933508160928</v>
+        <v>0</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -8059,7 +8059,7 @@
         </is>
       </c>
       <c r="F241">
-        <v>0.0001067951372614167</v>
+        <v>0</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         </is>
       </c>
       <c r="F242">
-        <v>0.0001364604531673658</v>
+        <v>0</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="F243">
-        <v>0.0001779918954356945</v>
+        <v>0</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="F244">
-        <v>0.0005695740653942224</v>
+        <v>0</v>
       </c>
       <c r="G244">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H244">
         <v>0.1991754132100627</v>
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="F245">
-        <v>0.0006467038867496899</v>
+        <v>0</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="F246">
-        <v>0.0002788539695159213</v>
+        <v>0</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="F247">
-        <v>0.0001364604531673658</v>
+        <v>0</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -8283,7 +8283,7 @@
         </is>
       </c>
       <c r="F248">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F249">
-        <v>0.0002432555904287825</v>
+        <v>0</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="F250">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="F251">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="F252">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="F253">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         </is>
       </c>
       <c r="F254">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="F255">
-        <v>0.0003797160435961483</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="F256">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="F257">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F258">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         </is>
       </c>
       <c r="F259">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="F260">
-        <v>7.712982135546761e-05</v>
+        <v>0</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F261">
-        <v>0.0001601927058921251</v>
+        <v>0</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="F262">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="F263">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="F264">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="F265">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -8859,10 +8859,10 @@
         </is>
       </c>
       <c r="F266">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G266">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H266">
         <v>0.1991754132100627</v>
@@ -8891,10 +8891,10 @@
         </is>
       </c>
       <c r="F267">
-        <v>0.0004805781176763752</v>
+        <v>0</v>
       </c>
       <c r="G267">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0.2183941401310146</v>
@@ -8923,10 +8923,10 @@
         </is>
       </c>
       <c r="F268">
-        <v>0.06745299530694703</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G268">
-        <v>0.02331100523889479</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H268">
         <v>0.2297750295893244</v>
@@ -8955,10 +8955,10 @@
         </is>
       </c>
       <c r="F269">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G269">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H269">
         <v>0.2355140104639074</v>
@@ -8987,10 +8987,10 @@
         </is>
       </c>
       <c r="F270">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G270">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H270">
         <v>0.2365302188098141</v>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="F271">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         </is>
       </c>
       <c r="F272">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -9083,10 +9083,10 @@
         </is>
       </c>
       <c r="F273">
-        <v>0.0153251021970133</v>
+        <v>0</v>
       </c>
       <c r="G273">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H273">
         <v>0.2424712969857342</v>
@@ -9115,10 +9115,10 @@
         </is>
       </c>
       <c r="F274">
-        <v>0.0005221095599447039</v>
+        <v>0</v>
       </c>
       <c r="G274">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H274">
         <v>0.2480837032250602</v>
@@ -9147,10 +9147,10 @@
         </is>
       </c>
       <c r="F275">
-        <v>0.0002195233377040232</v>
+        <v>0</v>
       </c>
       <c r="G275">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="H275">
         <v>0.2686774445283367</v>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="F276">
-        <v>0.0001661257690733149</v>
+        <v>0</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -9211,7 +9211,7 @@
         </is>
       </c>
       <c r="F277">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="F278">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F279">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F280">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
       <c r="F281">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="F282">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="F283">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="F284">
-        <v>0.009623428479889883</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G284">
-        <v>0.004242140174550719</v>
+        <v>0</v>
       </c>
       <c r="H284">
         <v>0.2814799869319603</v>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="F285">
-        <v>0.0006051724444813613</v>
+        <v>0</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         </is>
       </c>
       <c r="F286">
-        <v>0.001993509228879778</v>
+        <v>0</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         </is>
       </c>
       <c r="F287">
-        <v>0.026099544934054</v>
+        <v>0</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         </is>
       </c>
       <c r="F288">
-        <v>0.001857048775712413</v>
+        <v>0</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="F289">
-        <v>0.000581440191756602</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G289">
-        <v>0.001459533542572695</v>
+        <v>0</v>
       </c>
       <c r="H289">
         <v>0.2814799869319603</v>
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="F290">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="F291">
-        <v>0.0003203854117842501</v>
+        <v>0</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         </is>
       </c>
       <c r="F292">
-        <v>0.000711967581742778</v>
+        <v>0</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="F293">
-        <v>0.002165568061134283</v>
+        <v>0</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="F294">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         </is>
       </c>
       <c r="F295">
-        <v>0.001168813446694394</v>
+        <v>0</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="F296">
-        <v>0.001026419930345838</v>
+        <v>0</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="F297">
-        <v>0.0005933063181189816</v>
+        <v>0</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="F298">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         </is>
       </c>
       <c r="F299">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="F300">
-        <v>0.0008365619085477641</v>
+        <v>0</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         </is>
       </c>
       <c r="F301">
-        <v>7.712982135546761e-05</v>
+        <v>0</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         </is>
       </c>
       <c r="F302">
-        <v>0.001690923006639098</v>
+        <v>0</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         </is>
       </c>
       <c r="F303">
-        <v>0.0008068965926418151</v>
+        <v>0</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="F304">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -10107,10 +10107,10 @@
         </is>
       </c>
       <c r="F305">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="G305">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H305">
         <v>0.2814799869319603</v>
@@ -10139,7 +10139,7 @@
         </is>
       </c>
       <c r="F306">
-        <v>0.0004153144226832871</v>
+        <v>0</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="F307">
-        <v>0.00131120696304295</v>
+        <v>0</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="F308">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F309">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="F310">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -10299,7 +10299,7 @@
         </is>
       </c>
       <c r="F311">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F312">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="F313">
-        <v>0.0003144523486030603</v>
+        <v>0</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -10395,7 +10395,7 @@
         </is>
       </c>
       <c r="F314">
-        <v>0.0002610547799723519</v>
+        <v>0</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         </is>
       </c>
       <c r="F315">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="F316">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="F317">
-        <v>5.933063181189816e-05</v>
+        <v>0</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="F318">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="F319">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -10587,10 +10587,10 @@
         </is>
       </c>
       <c r="F320">
-        <v>0.000225456400885213</v>
+        <v>0</v>
       </c>
       <c r="G320">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="H320">
         <v>0.288044221492635</v>
@@ -10619,10 +10619,10 @@
         </is>
       </c>
       <c r="F321">
-        <v>0.004805781176763751</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="G321">
-        <v>0.002307961577482839</v>
+        <v>0</v>
       </c>
       <c r="H321">
         <v>0.2903657118314065</v>
@@ -10651,10 +10651,10 @@
         </is>
       </c>
       <c r="F322">
-        <v>0.003992951520940747</v>
+        <v>0</v>
       </c>
       <c r="G322">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H322">
         <v>0.2903657118314065</v>
@@ -10683,10 +10683,10 @@
         </is>
       </c>
       <c r="F323">
-        <v>0.0003144523486030603</v>
+        <v>0</v>
       </c>
       <c r="G323">
-        <v>0.005772870475297692</v>
+        <v>0</v>
       </c>
       <c r="H323">
         <v>0.2903657118314065</v>
@@ -10715,10 +10715,10 @@
         </is>
       </c>
       <c r="F324">
-        <v>0.002830071137427542</v>
+        <v>0</v>
       </c>
       <c r="G324">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H324">
         <v>0.2903657118314065</v>
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="F325">
-        <v>0.0003915821699585279</v>
+        <v>0</v>
       </c>
       <c r="G325">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H325">
         <v>0.2903657118314065</v>
@@ -10779,10 +10779,10 @@
         </is>
       </c>
       <c r="F326">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G326">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="H326">
         <v>0.2903657118314065</v>
@@ -10811,10 +10811,10 @@
         </is>
       </c>
       <c r="F327">
-        <v>0.0001364604531673658</v>
+        <v>0</v>
       </c>
       <c r="G327">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="H327">
         <v>0.3051925834673389</v>
@@ -10843,10 +10843,10 @@
         </is>
       </c>
       <c r="F328">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G328">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H328">
         <v>0.3268315665790367</v>
@@ -10875,10 +10875,10 @@
         </is>
       </c>
       <c r="F329">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="G329">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H329">
         <v>0.3655475126828091</v>
@@ -10907,10 +10907,10 @@
         </is>
       </c>
       <c r="F330">
-        <v>0.0006289046972061205</v>
+        <v>0</v>
       </c>
       <c r="G330">
-        <v>0.00257494942063638</v>
+        <v>0</v>
       </c>
       <c r="H330">
         <v>0.3710023469011461</v>
@@ -10939,10 +10939,10 @@
         </is>
       </c>
       <c r="F331">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G331">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H331">
         <v>0.3713784275496322</v>
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="F332">
-        <v>0.0001364604531673658</v>
+        <v>0</v>
       </c>
       <c r="G332">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H332">
         <v>0.3713784275496322</v>
@@ -11003,10 +11003,10 @@
         </is>
       </c>
       <c r="F333">
-        <v>0.0002610547799723519</v>
+        <v>0</v>
       </c>
       <c r="G333">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="H333">
         <v>0.3752026010858525</v>
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="F334">
-        <v>0.002462221220193774</v>
+        <v>0</v>
       </c>
       <c r="G334">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H334">
         <v>0.3757480455189011</v>
@@ -11067,10 +11067,10 @@
         </is>
       </c>
       <c r="F335">
-        <v>0.0002135902745228334</v>
+        <v>0</v>
       </c>
       <c r="G335">
-        <v>0.0007594320871922964</v>
+        <v>0</v>
       </c>
       <c r="H335">
         <v>0.3757480455189011</v>
@@ -11099,10 +11099,10 @@
         </is>
       </c>
       <c r="F336">
-        <v>0.0001661257690733149</v>
+        <v>0</v>
       </c>
       <c r="G336">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H336">
         <v>0.3757480455189011</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="G337">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H337">
         <v>0.3861392106844738</v>
@@ -11163,10 +11163,10 @@
         </is>
       </c>
       <c r="F338">
-        <v>0.0003619168540525788</v>
+        <v>0</v>
       </c>
       <c r="G338">
-        <v>0.002290162387939269</v>
+        <v>0</v>
       </c>
       <c r="H338">
         <v>0.3861392106844738</v>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F339">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="F340">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G340">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         </is>
       </c>
       <c r="F341">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="F342">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G342">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="F343">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="F344">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G344">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F345">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -11419,7 +11419,7 @@
         </is>
       </c>
       <c r="F346">
-        <v>0.0001661257690733148</v>
+        <v>0</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -11451,10 +11451,10 @@
         </is>
       </c>
       <c r="F347">
-        <v>0.002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="G347">
-        <v>0.00549994956896296</v>
+        <v>0</v>
       </c>
       <c r="H347">
         <v>0.3890689742488147</v>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="F348">
-        <v>0.000516176496763514</v>
+        <v>0</v>
       </c>
       <c r="G348">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         </is>
       </c>
       <c r="F349">
-        <v>0.000290720095878301</v>
+        <v>0</v>
       </c>
       <c r="G349">
         <v>0</v>
@@ -11547,7 +11547,7 @@
         </is>
       </c>
       <c r="F350">
-        <v>0.004859178745394459</v>
+        <v>0</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F351">
-        <v>0.000516176496763514</v>
+        <v>0</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="F352">
-        <v>0.001162880383513204</v>
+        <v>0</v>
       </c>
       <c r="G352">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="H352">
         <v>0.3890689742488147</v>
@@ -11643,7 +11643,7 @@
         </is>
       </c>
       <c r="F353">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="F354">
-        <v>0.001198478762600343</v>
+        <v>0</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -11707,10 +11707,10 @@
         </is>
       </c>
       <c r="F355">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G355">
-        <v>0.0001601927058921251</v>
+        <v>0</v>
       </c>
       <c r="H355">
         <v>0.3890689742488147</v>
@@ -11739,10 +11739,10 @@
         </is>
       </c>
       <c r="F356">
-        <v>0.000450912801770426</v>
+        <v>0</v>
       </c>
       <c r="G356">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H356">
         <v>0.3890689742488147</v>
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="F357">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -11803,7 +11803,7 @@
         </is>
       </c>
       <c r="F358">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="F359">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F360">
-        <v>0.001797718143900514</v>
+        <v>0</v>
       </c>
       <c r="G360">
         <v>0</v>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="F361">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         </is>
       </c>
       <c r="F362">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="G362">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F363">
-        <v>0.0002313894640664028</v>
+        <v>0</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -11995,10 +11995,10 @@
         </is>
       </c>
       <c r="F364">
-        <v>7.712982135546762e-05</v>
+        <v>0</v>
       </c>
       <c r="G364">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H364">
         <v>0.3890689742488147</v>
@@ -12027,7 +12027,7 @@
         </is>
       </c>
       <c r="F365">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G365">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F366">
-        <v>0.0002729209063347316</v>
+        <v>0</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         </is>
       </c>
       <c r="F367">
-        <v>8.306288453665743e-05</v>
+        <v>0</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         </is>
       </c>
       <c r="F368">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F369">
-        <v>0.0001245943268049862</v>
+        <v>0</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="F370">
-        <v>8.306288453665743e-05</v>
+        <v>0</v>
       </c>
       <c r="G370">
         <v>0</v>
@@ -12219,7 +12219,7 @@
         </is>
       </c>
       <c r="F371">
-        <v>0.001032352993527028</v>
+        <v>0</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -12251,10 +12251,10 @@
         </is>
       </c>
       <c r="F372">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G372">
-        <v>5.933063181189816e-05</v>
+        <v>0</v>
       </c>
       <c r="H372">
         <v>0.3890689742488147</v>
@@ -12283,7 +12283,7 @@
         </is>
       </c>
       <c r="F373">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="F374">
-        <v>0.0007001014553803983</v>
+        <v>0</v>
       </c>
       <c r="G374">
         <v>0</v>
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F375">
-        <v>0.0005458418126694631</v>
+        <v>0</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -12379,7 +12379,7 @@
         </is>
       </c>
       <c r="F376">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="F377">
-        <v>0.0004983773072199445</v>
+        <v>0</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F378">
-        <v>0.000581440191756602</v>
+        <v>0</v>
       </c>
       <c r="G378">
         <v>0</v>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="F379">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="F380">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F381">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="F382">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         </is>
       </c>
       <c r="F383">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G383">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H383">
         <v>0.3890689742488147</v>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="F384">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G384">
         <v>0</v>
@@ -12667,10 +12667,10 @@
         </is>
       </c>
       <c r="F385">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G385">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H385">
         <v>0.3890689742488147</v>
@@ -12699,7 +12699,7 @@
         </is>
       </c>
       <c r="F386">
-        <v>0.0004271805490456668</v>
+        <v>0</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -12731,7 +12731,7 @@
         </is>
       </c>
       <c r="F387">
-        <v>0.0002135902745228334</v>
+        <v>0</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="F388">
-        <v>0.0003797160435961482</v>
+        <v>0</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="F389">
-        <v>0.0001423935163485556</v>
+        <v>0</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="F390">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         </is>
       </c>
       <c r="F391">
-        <v>0.0003203854117842501</v>
+        <v>0</v>
       </c>
       <c r="G391">
         <v>0</v>
@@ -12891,7 +12891,7 @@
         </is>
       </c>
       <c r="F392">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G392">
         <v>0</v>
@@ -12923,7 +12923,7 @@
         </is>
       </c>
       <c r="F393">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -12955,7 +12955,7 @@
         </is>
       </c>
       <c r="F394">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         </is>
       </c>
       <c r="F395">
-        <v>0.0002195233377040232</v>
+        <v>0</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="F396">
-        <v>0.0002551217167911621</v>
+        <v>0</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="F397">
-        <v>0.000225456400885213</v>
+        <v>0</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="G398">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="H398">
         <v>0.3890689742488147</v>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="F399">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="F400">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G400">
         <v>0</v>
@@ -13179,7 +13179,7 @@
         </is>
       </c>
       <c r="F401">
-        <v>7.712982135546762e-05</v>
+        <v>0</v>
       </c>
       <c r="G401">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         </is>
       </c>
       <c r="F402">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         </is>
       </c>
       <c r="F403">
-        <v>9.492901089903707e-05</v>
+        <v>0</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -13275,7 +13275,7 @@
         </is>
       </c>
       <c r="F404">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         </is>
       </c>
       <c r="F405">
-        <v>0.0001008620740802269</v>
+        <v>0</v>
       </c>
       <c r="G405">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="F406">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="F407">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         </is>
       </c>
       <c r="F408">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         </is>
       </c>
       <c r="F409">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -13467,7 +13467,7 @@
         </is>
       </c>
       <c r="F410">
-        <v>7.712982135546761e-05</v>
+        <v>0</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -13499,7 +13499,7 @@
         </is>
       </c>
       <c r="F411">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -13531,7 +13531,7 @@
         </is>
       </c>
       <c r="F412">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G412">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         </is>
       </c>
       <c r="F413">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="F414">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F415">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="F416">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -13691,7 +13691,7 @@
         </is>
       </c>
       <c r="F417">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -13723,10 +13723,10 @@
         </is>
       </c>
       <c r="F418">
-        <v>0.0003322515381466297</v>
+        <v>0</v>
       </c>
       <c r="G418">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H418">
         <v>0.4284210450937704</v>
@@ -13755,10 +13755,10 @@
         </is>
       </c>
       <c r="F419">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="G419">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H419">
         <v>0.4284210450937704</v>
@@ -13787,10 +13787,10 @@
         </is>
       </c>
       <c r="F420">
-        <v>0.001489198858478644</v>
+        <v>0</v>
       </c>
       <c r="G420">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H420">
         <v>0.4284210450937704</v>
@@ -13819,10 +13819,10 @@
         </is>
       </c>
       <c r="F421">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G421">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="H421">
         <v>0.4303037399497239</v>
@@ -13851,10 +13851,10 @@
         </is>
       </c>
       <c r="F422">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G422">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H422">
         <v>0.4303037399497239</v>
@@ -13883,10 +13883,10 @@
         </is>
       </c>
       <c r="F423">
-        <v>0.006751825900194011</v>
+        <v>0</v>
       </c>
       <c r="G423">
-        <v>0.003963286205034797</v>
+        <v>0</v>
       </c>
       <c r="H423">
         <v>0.4313817217224913</v>
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="F424">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G424">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H424">
         <v>0.5592510879234628</v>
@@ -13947,10 +13947,10 @@
         </is>
       </c>
       <c r="F425">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G425">
-        <v>0.0090301221617709</v>
+        <v>0</v>
       </c>
       <c r="H425">
         <v>0.6245571426683891</v>
@@ -13979,7 +13979,7 @@
         </is>
       </c>
       <c r="F426">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G426">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         </is>
       </c>
       <c r="F427">
-        <v>0.0001423935163485556</v>
+        <v>0</v>
       </c>
       <c r="G427">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="G428">
-        <v>0.000355983790871389</v>
+        <v>0</v>
       </c>
       <c r="H428">
         <v>0.6245571426683891</v>
@@ -14075,7 +14075,7 @@
         </is>
       </c>
       <c r="F429">
-        <v>0.001418002100304366</v>
+        <v>0</v>
       </c>
       <c r="G429">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="F430">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G430">
         <v>0</v>
@@ -14139,10 +14139,10 @@
         </is>
       </c>
       <c r="F431">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G431">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H431">
         <v>0.6245571426683891</v>
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="F432">
-        <v>0.0001423935163485556</v>
+        <v>0</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="F433">
-        <v>0.001014553803983459</v>
+        <v>0</v>
       </c>
       <c r="G433">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="H433">
         <v>0.6245571426683891</v>
@@ -14235,7 +14235,7 @@
         </is>
       </c>
       <c r="F434">
-        <v>0.000901825603540852</v>
+        <v>0</v>
       </c>
       <c r="G434">
         <v>0</v>
@@ -14267,7 +14267,7 @@
         </is>
       </c>
       <c r="F435">
-        <v>0.0003322515381466297</v>
+        <v>0</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -14299,7 +14299,7 @@
         </is>
       </c>
       <c r="F436">
-        <v>0.0006467038867496899</v>
+        <v>0</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -14331,10 +14331,10 @@
         </is>
       </c>
       <c r="F437">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="G437">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H437">
         <v>0.6245571426683891</v>
@@ -14363,7 +14363,7 @@
         </is>
       </c>
       <c r="F438">
-        <v>8.306288453665743e-05</v>
+        <v>0</v>
       </c>
       <c r="G438">
         <v>0</v>
@@ -14395,7 +14395,7 @@
         </is>
       </c>
       <c r="F439">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -14427,7 +14427,7 @@
         </is>
       </c>
       <c r="F440">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G440">
         <v>0</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="G441">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="H441">
         <v>0.6245571426683891</v>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="F442">
-        <v>0.000290720095878301</v>
+        <v>0</v>
       </c>
       <c r="G442">
         <v>0</v>
@@ -14523,7 +14523,7 @@
         </is>
       </c>
       <c r="F443">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -14555,7 +14555,7 @@
         </is>
       </c>
       <c r="F444">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="G444">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         </is>
       </c>
       <c r="F445">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -14619,7 +14619,7 @@
         </is>
       </c>
       <c r="F446">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G446">
         <v>0</v>
@@ -14651,7 +14651,7 @@
         </is>
       </c>
       <c r="F447">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G447">
         <v>0</v>
@@ -14683,7 +14683,7 @@
         </is>
       </c>
       <c r="F448">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G448">
         <v>0</v>
@@ -14715,10 +14715,10 @@
         </is>
       </c>
       <c r="F449">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G449">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="H449">
         <v>0.6245571426683891</v>
@@ -14747,7 +14747,7 @@
         </is>
       </c>
       <c r="F450">
-        <v>0.0002788539695159214</v>
+        <v>0</v>
       </c>
       <c r="G450">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="F451">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -14811,10 +14811,10 @@
         </is>
       </c>
       <c r="F452">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G452">
-        <v>0.0001245943268049862</v>
+        <v>0</v>
       </c>
       <c r="H452">
         <v>0.6245571426683891</v>
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="F453">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -14875,10 +14875,10 @@
         </is>
       </c>
       <c r="F454">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G454">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H454">
         <v>0.6245571426683891</v>
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="F455">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -14939,7 +14939,7 @@
         </is>
       </c>
       <c r="F456">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="F457">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -15003,7 +15003,7 @@
         </is>
       </c>
       <c r="F458">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G458">
         <v>0</v>
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="F459">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="F460">
-        <v>8.306288453665743e-05</v>
+        <v>0</v>
       </c>
       <c r="G460">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="F461">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="F462">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G462">
         <v>0</v>
@@ -15163,7 +15163,7 @@
         </is>
       </c>
       <c r="F463">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G463">
         <v>0</v>
@@ -15195,7 +15195,7 @@
         </is>
       </c>
       <c r="F464">
-        <v>0.0001186612636237963</v>
+        <v>0</v>
       </c>
       <c r="G464">
         <v>0</v>
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F465">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -15259,7 +15259,7 @@
         </is>
       </c>
       <c r="F466">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G466">
         <v>0</v>
@@ -15291,7 +15291,7 @@
         </is>
       </c>
       <c r="F467">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F468">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G468">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="F469">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="F470">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="F471">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -15451,7 +15451,7 @@
         </is>
       </c>
       <c r="F472">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="F473">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G473">
         <v>0</v>
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F474">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G474">
         <v>0</v>
@@ -15547,7 +15547,7 @@
         </is>
       </c>
       <c r="F475">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -15579,7 +15579,7 @@
         </is>
       </c>
       <c r="F476">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F477">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G477">
         <v>0</v>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="F478">
-        <v>7.712982135546762e-05</v>
+        <v>0</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         </is>
       </c>
       <c r="F479">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F480">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="F481">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G481">
         <v>0</v>
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="F482">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G482">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="F483">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G483">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="F484">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G484">
         <v>0</v>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="F485">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -15899,7 +15899,7 @@
         </is>
       </c>
       <c r="F486">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="F487">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -15963,7 +15963,7 @@
         </is>
       </c>
       <c r="F488">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G488">
         <v>0</v>
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="F489">
-        <v>9.492901089903706e-05</v>
+        <v>0</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -16027,7 +16027,7 @@
         </is>
       </c>
       <c r="F490">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G490">
         <v>0</v>
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="G491">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H491">
         <v>0.6245571426683891</v>
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F492">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G492">
         <v>0</v>
@@ -16123,10 +16123,10 @@
         </is>
       </c>
       <c r="F493">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G493">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H493">
         <v>0.6245571426683891</v>
@@ -16155,7 +16155,7 @@
         </is>
       </c>
       <c r="F494">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G494">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F495">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="F496">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G496">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         </is>
       </c>
       <c r="F497">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G497">
         <v>0</v>
@@ -16286,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="G498">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H498">
         <v>0.6245571426683891</v>
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="F499">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -16347,7 +16347,7 @@
         </is>
       </c>
       <c r="F500">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F501">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G501">
         <v>0</v>
@@ -16411,7 +16411,7 @@
         </is>
       </c>
       <c r="F502">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G502">
         <v>0</v>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="F503">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G503">
         <v>0</v>
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F504">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G504">
         <v>0</v>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="F505">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -16539,7 +16539,7 @@
         </is>
       </c>
       <c r="F506">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G506">
         <v>0</v>
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F507">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="G508">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H508">
         <v>0.6245571426683891</v>
@@ -16635,7 +16635,7 @@
         </is>
       </c>
       <c r="F509">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -16667,7 +16667,7 @@
         </is>
       </c>
       <c r="F510">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="F511">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -16731,7 +16731,7 @@
         </is>
       </c>
       <c r="F512">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G512">
         <v>0</v>
@@ -16763,7 +16763,7 @@
         </is>
       </c>
       <c r="F513">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="G514">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H514">
         <v>0.6245571426683891</v>
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="F515">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="G516">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H516">
         <v>0.6245571426683891</v>
@@ -16891,7 +16891,7 @@
         </is>
       </c>
       <c r="F517">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G517">
         <v>0</v>
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="F518">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G518">
         <v>0</v>
@@ -16955,7 +16955,7 @@
         </is>
       </c>
       <c r="F519">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -16987,7 +16987,7 @@
         </is>
       </c>
       <c r="F520">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G520">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         </is>
       </c>
       <c r="F521">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G521">
         <v>0</v>
@@ -17051,7 +17051,7 @@
         </is>
       </c>
       <c r="F522">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="F523">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G523">
         <v>0</v>
@@ -17115,7 +17115,7 @@
         </is>
       </c>
       <c r="F524">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G524">
         <v>0</v>
@@ -17147,7 +17147,7 @@
         </is>
       </c>
       <c r="F525">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         </is>
       </c>
       <c r="F526">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G526">
         <v>0</v>
@@ -17211,7 +17211,7 @@
         </is>
       </c>
       <c r="F527">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -17243,7 +17243,7 @@
         </is>
       </c>
       <c r="F528">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -17275,7 +17275,7 @@
         </is>
       </c>
       <c r="F529">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="F530">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G530">
         <v>0</v>
@@ -17339,7 +17339,7 @@
         </is>
       </c>
       <c r="F531">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="F532">
-        <v>0.001702789133001477</v>
+        <v>0</v>
       </c>
       <c r="G532">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0.6725794282705368</v>
@@ -17403,10 +17403,10 @@
         </is>
       </c>
       <c r="F533">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G533">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="H533">
         <v>0.6932098142445259</v>
@@ -17435,10 +17435,10 @@
         </is>
       </c>
       <c r="F534">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G534">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H534">
         <v>0.6932098142445259</v>
@@ -17467,10 +17467,10 @@
         </is>
       </c>
       <c r="F535">
-        <v>0.0004331136122268566</v>
+        <v>0</v>
       </c>
       <c r="G535">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H535">
         <v>0.7060465208992638</v>
@@ -17499,10 +17499,10 @@
         </is>
       </c>
       <c r="F536">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G536">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H536">
         <v>0.7064486562108031</v>
@@ -17531,10 +17531,10 @@
         </is>
       </c>
       <c r="F537">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G537">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H537">
         <v>0.7679370916928318</v>
@@ -17563,10 +17563,10 @@
         </is>
       </c>
       <c r="F538">
-        <v>0.0004627789281328057</v>
+        <v>0</v>
       </c>
       <c r="G538">
-        <v>0.003714097551424825</v>
+        <v>0</v>
       </c>
       <c r="H538">
         <v>0.8024988334510512</v>
@@ -17595,10 +17595,10 @@
         </is>
       </c>
       <c r="F539">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G539">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H539">
         <v>0.8024988334510512</v>
@@ -17627,10 +17627,10 @@
         </is>
       </c>
       <c r="F540">
-        <v>0.004467596575435931</v>
+        <v>0</v>
       </c>
       <c r="G540">
-        <v>0.01122535553881113</v>
+        <v>0</v>
       </c>
       <c r="H540">
         <v>0.8351855112871349</v>
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="F541">
-        <v>0.000130527389986176</v>
+        <v>0</v>
       </c>
       <c r="G541">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="H541">
         <v>0.9542018312358409</v>
@@ -17691,10 +17691,10 @@
         </is>
       </c>
       <c r="F542">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G542">
-        <v>0.0002313894640664028</v>
+        <v>0</v>
       </c>
       <c r="H542">
         <v>0.9542018312358409</v>
@@ -17723,10 +17723,10 @@
         </is>
       </c>
       <c r="F543">
-        <v>7.712982135546762e-05</v>
+        <v>0</v>
       </c>
       <c r="G543">
-        <v>0.0003678499172337686</v>
+        <v>0</v>
       </c>
       <c r="H543">
         <v>0.9542018312358409</v>
@@ -17755,10 +17755,10 @@
         </is>
       </c>
       <c r="F544">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G544">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H544">
         <v>0.9542018312358409</v>
@@ -17787,10 +17787,10 @@
         </is>
       </c>
       <c r="F545">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G545">
-        <v>0.0001067951372614167</v>
+        <v>0</v>
       </c>
       <c r="H545">
         <v>0.9542018312358409</v>
@@ -17819,10 +17819,10 @@
         </is>
       </c>
       <c r="F546">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G546">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="H546">
         <v>0.9542018312358409</v>
@@ -17851,10 +17851,10 @@
         </is>
       </c>
       <c r="F547">
-        <v>2.373225272475927e-05</v>
+        <v>0</v>
       </c>
       <c r="G547">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H547">
         <v>0.9542018312358409</v>
@@ -17883,10 +17883,10 @@
         </is>
       </c>
       <c r="F548">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G548">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H548">
         <v>0.9542018312358409</v>
@@ -17915,10 +17915,10 @@
         </is>
       </c>
       <c r="F549">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G549">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H549">
         <v>0.9542018312358409</v>
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="F550">
-        <v>0.002064705987054056</v>
+        <v>0</v>
       </c>
       <c r="G550">
-        <v>0.04157890677377823</v>
+        <v>0</v>
       </c>
       <c r="H550">
         <v>1</v>
@@ -17979,10 +17979,10 @@
         </is>
       </c>
       <c r="F551">
-        <v>0.01948417948702736</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="G551">
-        <v>0.02210659341311326</v>
+        <v>0.008092698179142909</v>
       </c>
       <c r="H551">
         <v>1</v>
@@ -18011,10 +18011,10 @@
         </is>
       </c>
       <c r="F552">
-        <v>0.001245943268049861</v>
+        <v>0</v>
       </c>
       <c r="G552">
-        <v>0.001495131921659834</v>
+        <v>0</v>
       </c>
       <c r="H552">
         <v>1</v>
@@ -18043,7 +18043,7 @@
         </is>
       </c>
       <c r="F553">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -18075,10 +18075,10 @@
         </is>
       </c>
       <c r="F554">
-        <v>0.0003678499172337686</v>
+        <v>0</v>
       </c>
       <c r="G554">
-        <v>0.001714655259363857</v>
+        <v>0</v>
       </c>
       <c r="H554">
         <v>1</v>
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="F555">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -18139,7 +18139,7 @@
         </is>
       </c>
       <c r="F556">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G556">
         <v>0</v>
@@ -18171,10 +18171,10 @@
         </is>
       </c>
       <c r="F557">
-        <v>0.0002847870326971112</v>
+        <v>0</v>
       </c>
       <c r="G557">
-        <v>0.0002195233377040232</v>
+        <v>0</v>
       </c>
       <c r="H557">
         <v>1</v>
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F558">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G558">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="F559">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -18267,10 +18267,10 @@
         </is>
       </c>
       <c r="F560">
-        <v>0.000160192705892125</v>
+        <v>0</v>
       </c>
       <c r="G560">
-        <v>0.001465466605753885</v>
+        <v>0</v>
       </c>
       <c r="H560">
         <v>1</v>
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="G561">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H561">
         <v>1</v>
@@ -18331,7 +18331,7 @@
         </is>
       </c>
       <c r="F562">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G562">
         <v>0</v>
@@ -18363,10 +18363,10 @@
         </is>
       </c>
       <c r="F563">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G563">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -18395,10 +18395,10 @@
         </is>
       </c>
       <c r="F564">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G564">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="G565">
-        <v>0.0001127282004426065</v>
+        <v>0</v>
       </c>
       <c r="H565">
         <v>1</v>
@@ -18459,10 +18459,10 @@
         </is>
       </c>
       <c r="F566">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G566">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H566">
         <v>1</v>
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="F567">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G567">
         <v>0</v>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="F568">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G568">
         <v>0</v>
@@ -18555,10 +18555,10 @@
         </is>
       </c>
       <c r="F569">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G569">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="H569">
         <v>1</v>
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F570">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -18619,10 +18619,10 @@
         </is>
       </c>
       <c r="F571">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G571">
-        <v>8.899594771784724e-05</v>
+        <v>0</v>
       </c>
       <c r="H571">
         <v>1</v>
@@ -18651,7 +18651,7 @@
         </is>
       </c>
       <c r="F572">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G572">
         <v>0</v>
@@ -18683,7 +18683,7 @@
         </is>
       </c>
       <c r="F573">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -18715,7 +18715,7 @@
         </is>
       </c>
       <c r="F574">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -18747,10 +18747,10 @@
         </is>
       </c>
       <c r="F575">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G575">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="H575">
         <v>1</v>
@@ -18779,10 +18779,10 @@
         </is>
       </c>
       <c r="F576">
-        <v>5.933063181189817e-05</v>
+        <v>0</v>
       </c>
       <c r="G576">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H576">
         <v>1</v>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="F577">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -18843,10 +18843,10 @@
         </is>
       </c>
       <c r="F578">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G578">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H578">
         <v>1</v>
@@ -18875,7 +18875,7 @@
         </is>
       </c>
       <c r="F579">
-        <v>3.55983790871389e-05</v>
+        <v>0</v>
       </c>
       <c r="G579">
         <v>0</v>
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="F580">
-        <v>0.0003203854117842501</v>
+        <v>0</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="G581">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H581">
         <v>1</v>
@@ -18971,10 +18971,10 @@
         </is>
       </c>
       <c r="F582">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G582">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="H582">
         <v>1</v>
@@ -19006,7 +19006,7 @@
         <v>0</v>
       </c>
       <c r="G583">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H583">
         <v>1</v>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="G584">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H584">
         <v>1</v>
@@ -19067,7 +19067,7 @@
         </is>
       </c>
       <c r="F585">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="F586">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -19131,7 +19131,7 @@
         </is>
       </c>
       <c r="F587">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         </is>
       </c>
       <c r="F588">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -19195,7 +19195,7 @@
         </is>
       </c>
       <c r="F589">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="F590">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         </is>
       </c>
       <c r="F591">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -19291,7 +19291,7 @@
         </is>
       </c>
       <c r="F592">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G592">
         <v>0</v>
@@ -19323,7 +19323,7 @@
         </is>
       </c>
       <c r="F593">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         </is>
       </c>
       <c r="F594">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G594">
         <v>0</v>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="F595">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -19419,7 +19419,7 @@
         </is>
       </c>
       <c r="F596">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G596">
         <v>0</v>
@@ -19451,7 +19451,7 @@
         </is>
       </c>
       <c r="F597">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G597">
         <v>0</v>
@@ -19483,7 +19483,7 @@
         </is>
       </c>
       <c r="F598">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G598">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         </is>
       </c>
       <c r="F599">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -19550,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="G600">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H600">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         </is>
       </c>
       <c r="F601">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -19611,7 +19611,7 @@
         </is>
       </c>
       <c r="F602">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G602">
         <v>0</v>
@@ -19643,7 +19643,7 @@
         </is>
       </c>
       <c r="F603">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="F604">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G604">
         <v>0</v>
@@ -19707,7 +19707,7 @@
         </is>
       </c>
       <c r="F605">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -19739,7 +19739,7 @@
         </is>
       </c>
       <c r="F606">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="F607">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -19803,7 +19803,7 @@
         </is>
       </c>
       <c r="F608">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G608">
         <v>0</v>
@@ -19835,7 +19835,7 @@
         </is>
       </c>
       <c r="F609">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -19867,7 +19867,7 @@
         </is>
       </c>
       <c r="F610">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -19899,10 +19899,10 @@
         </is>
       </c>
       <c r="F611">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G611">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H611">
         <v>1</v>
@@ -19931,7 +19931,7 @@
         </is>
       </c>
       <c r="F612">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="F613">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -19995,7 +19995,7 @@
         </is>
       </c>
       <c r="F614">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G614">
         <v>0</v>
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="F615">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -20062,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="G616">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H616">
         <v>1</v>
@@ -20091,7 +20091,7 @@
         </is>
       </c>
       <c r="F617">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G617">
         <v>0</v>
@@ -20123,7 +20123,7 @@
         </is>
       </c>
       <c r="F618">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G618">
         <v>0</v>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="F619">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -20187,7 +20187,7 @@
         </is>
       </c>
       <c r="F620">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G620">
         <v>0</v>
@@ -20219,7 +20219,7 @@
         </is>
       </c>
       <c r="F621">
-        <v>0.0001542596427109352</v>
+        <v>0</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="F622">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G622">
         <v>0</v>
@@ -20283,7 +20283,7 @@
         </is>
       </c>
       <c r="F623">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G623">
         <v>0</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="G624">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H624">
         <v>1</v>
@@ -20347,7 +20347,7 @@
         </is>
       </c>
       <c r="F625">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G625">
         <v>0</v>
@@ -20379,7 +20379,7 @@
         </is>
       </c>
       <c r="F626">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G626">
         <v>0</v>
@@ -20411,7 +20411,7 @@
         </is>
       </c>
       <c r="F627">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G627">
         <v>0</v>
@@ -20443,7 +20443,7 @@
         </is>
       </c>
       <c r="F628">
-        <v>4.746450544951853e-05</v>
+        <v>0</v>
       </c>
       <c r="G628">
         <v>0</v>
@@ -20475,7 +20475,7 @@
         </is>
       </c>
       <c r="F629">
-        <v>0.0001067951372614167</v>
+        <v>0</v>
       </c>
       <c r="G629">
         <v>0</v>
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="G630">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H630">
         <v>1</v>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="F631">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -20571,10 +20571,10 @@
         </is>
       </c>
       <c r="F632">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G632">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="H632">
         <v>1</v>
@@ -20603,7 +20603,7 @@
         </is>
       </c>
       <c r="F633">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -20635,7 +20635,7 @@
         </is>
       </c>
       <c r="F634">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -20667,7 +20667,7 @@
         </is>
       </c>
       <c r="F635">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G635">
         <v>0</v>
@@ -20699,7 +20699,7 @@
         </is>
       </c>
       <c r="F636">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G636">
         <v>0</v>
@@ -20731,7 +20731,7 @@
         </is>
       </c>
       <c r="F637">
-        <v>6.526369499308798e-05</v>
+        <v>0</v>
       </c>
       <c r="G637">
         <v>0</v>
@@ -20763,7 +20763,7 @@
         </is>
       </c>
       <c r="F638">
-        <v>5.339756863070835e-05</v>
+        <v>0</v>
       </c>
       <c r="G638">
         <v>0</v>
@@ -20795,7 +20795,7 @@
         </is>
       </c>
       <c r="F639">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="F640">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G640">
         <v>0</v>
@@ -20859,7 +20859,7 @@
         </is>
       </c>
       <c r="F641">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G641">
         <v>0</v>
@@ -20891,7 +20891,7 @@
         </is>
       </c>
       <c r="F642">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G642">
         <v>0</v>
@@ -20923,7 +20923,7 @@
         </is>
       </c>
       <c r="F643">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G643">
         <v>0</v>
@@ -20955,7 +20955,7 @@
         </is>
       </c>
       <c r="F644">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G644">
         <v>0</v>
@@ -20987,7 +20987,7 @@
         </is>
       </c>
       <c r="F645">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G645">
         <v>0</v>
@@ -21019,7 +21019,7 @@
         </is>
       </c>
       <c r="F646">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G646">
         <v>0</v>
@@ -21054,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="G647">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H647">
         <v>1</v>
@@ -21083,7 +21083,7 @@
         </is>
       </c>
       <c r="F648">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G648">
         <v>0</v>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="F649">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G649">
         <v>0</v>
@@ -21147,7 +21147,7 @@
         </is>
       </c>
       <c r="F650">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G650">
         <v>0</v>
@@ -21179,7 +21179,7 @@
         </is>
       </c>
       <c r="F651">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G651">
         <v>0</v>
@@ -21211,7 +21211,7 @@
         </is>
       </c>
       <c r="F652">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -21243,7 +21243,7 @@
         </is>
       </c>
       <c r="F653">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -21275,7 +21275,7 @@
         </is>
       </c>
       <c r="F654">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G654">
         <v>0</v>
@@ -21307,7 +21307,7 @@
         </is>
       </c>
       <c r="F655">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G655">
         <v>0</v>
@@ -21339,7 +21339,7 @@
         </is>
       </c>
       <c r="F656">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="F657">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="F658">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         </is>
       </c>
       <c r="F659">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G659">
         <v>0</v>
@@ -21467,7 +21467,7 @@
         </is>
       </c>
       <c r="F660">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -21499,7 +21499,7 @@
         </is>
       </c>
       <c r="F661">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G661">
         <v>0</v>
@@ -21534,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="G662">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H662">
         <v>1</v>
@@ -21563,10 +21563,10 @@
         </is>
       </c>
       <c r="F663">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G663">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="H663">
         <v>1</v>
@@ -21595,7 +21595,7 @@
         </is>
       </c>
       <c r="F664">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G664">
         <v>0</v>
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="F665">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G665">
         <v>0</v>
@@ -21659,7 +21659,7 @@
         </is>
       </c>
       <c r="F666">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G666">
         <v>0</v>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="F667">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G667">
         <v>0</v>
@@ -21723,7 +21723,7 @@
         </is>
       </c>
       <c r="F668">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G668">
         <v>0</v>
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="F669">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G669">
         <v>0</v>
@@ -21787,7 +21787,7 @@
         </is>
       </c>
       <c r="F670">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="G671">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H671">
         <v>1</v>
@@ -21851,7 +21851,7 @@
         </is>
       </c>
       <c r="F672">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -21883,7 +21883,7 @@
         </is>
       </c>
       <c r="F673">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -21918,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="G674">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H674">
         <v>1</v>
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="F675">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="F676">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G676">
         <v>0</v>
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="G677">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H677">
         <v>1</v>
@@ -22043,7 +22043,7 @@
         </is>
       </c>
       <c r="F678">
-        <v>4.153144226832872e-05</v>
+        <v>0</v>
       </c>
       <c r="G678">
         <v>0</v>
@@ -22075,7 +22075,7 @@
         </is>
       </c>
       <c r="F679">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -22107,7 +22107,7 @@
         </is>
       </c>
       <c r="F680">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -22139,7 +22139,7 @@
         </is>
       </c>
       <c r="F681">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="F682">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G682">
         <v>0</v>
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="G683">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H683">
         <v>1</v>
@@ -22235,7 +22235,7 @@
         </is>
       </c>
       <c r="F684">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G684">
         <v>0</v>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="F685">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -22299,7 +22299,7 @@
         </is>
       </c>
       <c r="F686">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G686">
         <v>0</v>
@@ -22331,7 +22331,7 @@
         </is>
       </c>
       <c r="F687">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G687">
         <v>0</v>
@@ -22366,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="G688">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H688">
         <v>1</v>
@@ -22395,7 +22395,7 @@
         </is>
       </c>
       <c r="F689">
-        <v>2.966531590594908e-05</v>
+        <v>0</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="F690">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G690">
         <v>0</v>
@@ -22459,7 +22459,7 @@
         </is>
       </c>
       <c r="F691">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -22491,7 +22491,7 @@
         </is>
       </c>
       <c r="F692">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G692">
         <v>0</v>
@@ -22523,7 +22523,7 @@
         </is>
       </c>
       <c r="F693">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G693">
         <v>0</v>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="F694">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="F695">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G695">
         <v>0</v>
@@ -22622,7 +22622,7 @@
         <v>0</v>
       </c>
       <c r="G696">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H696">
         <v>1</v>
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="F697">
-        <v>7.11967581742778e-05</v>
+        <v>0</v>
       </c>
       <c r="G697">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="G698">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H698">
         <v>1</v>
@@ -22715,7 +22715,7 @@
         </is>
       </c>
       <c r="F699">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         </is>
       </c>
       <c r="F700">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -22779,7 +22779,7 @@
         </is>
       </c>
       <c r="F701">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -22811,7 +22811,7 @@
         </is>
       </c>
       <c r="F702">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G702">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="G703">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H703">
         <v>1</v>
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F704">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G704">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         </is>
       </c>
       <c r="F705">
-        <v>2.373225272475926e-05</v>
+        <v>0</v>
       </c>
       <c r="G705">
         <v>0</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="F706">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G706">
         <v>0</v>
@@ -22974,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="G707">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H707">
         <v>1</v>
@@ -23003,7 +23003,7 @@
         </is>
       </c>
       <c r="F708">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G708">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         </is>
       </c>
       <c r="F709">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -23070,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="G710">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H710">
         <v>1</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="F711">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="F712">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G712">
         <v>0</v>
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="G713">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H713">
         <v>1</v>
@@ -23195,7 +23195,7 @@
         </is>
       </c>
       <c r="F714">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="F715">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F716">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -23291,7 +23291,7 @@
         </is>
       </c>
       <c r="F717">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         </is>
       </c>
       <c r="F718">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G718">
         <v>0</v>
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F719">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         </is>
       </c>
       <c r="F720">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="F721">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F722">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G722">
         <v>0</v>
@@ -23483,10 +23483,10 @@
         </is>
       </c>
       <c r="F723">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G723">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H723">
         <v>1</v>
@@ -23515,7 +23515,7 @@
         </is>
       </c>
       <c r="F724">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G724">
         <v>0</v>
@@ -23547,7 +23547,7 @@
         </is>
       </c>
       <c r="F725">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="F726">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -23611,7 +23611,7 @@
         </is>
       </c>
       <c r="F727">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G727">
         <v>0</v>
@@ -23643,7 +23643,7 @@
         </is>
       </c>
       <c r="F728">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G728">
         <v>0</v>
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="F729">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="F730">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G730">
         <v>0</v>
@@ -23739,7 +23739,7 @@
         </is>
       </c>
       <c r="F731">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="F732">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         </is>
       </c>
       <c r="F733">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G733">
         <v>0</v>
@@ -23835,7 +23835,7 @@
         </is>
       </c>
       <c r="F734">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G734">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         </is>
       </c>
       <c r="F735">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         </is>
       </c>
       <c r="F736">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G736">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         </is>
       </c>
       <c r="F737">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G737">
         <v>0</v>
@@ -23963,7 +23963,7 @@
         </is>
       </c>
       <c r="F738">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G738">
         <v>0</v>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="F739">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="F740">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G740">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G741">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H741">
         <v>1</v>
@@ -24091,7 +24091,7 @@
         </is>
       </c>
       <c r="F742">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G742">
         <v>0</v>
@@ -24123,7 +24123,7 @@
         </is>
       </c>
       <c r="F743">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G743">
         <v>0</v>
@@ -24155,7 +24155,7 @@
         </is>
       </c>
       <c r="F744">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         </is>
       </c>
       <c r="F745">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G745">
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>0</v>
       </c>
       <c r="G746">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H746">
         <v>1</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="G747">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H747">
         <v>1</v>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="F748">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G748">
         <v>0</v>
@@ -24315,7 +24315,7 @@
         </is>
       </c>
       <c r="F749">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G749">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         </is>
       </c>
       <c r="F750">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G750">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         </is>
       </c>
       <c r="F751">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G751">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         </is>
       </c>
       <c r="F752">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G752">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         </is>
       </c>
       <c r="F753">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G753">
         <v>0</v>
@@ -24475,7 +24475,7 @@
         </is>
       </c>
       <c r="F754">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G754">
         <v>0</v>
@@ -24507,7 +24507,7 @@
         </is>
       </c>
       <c r="F755">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         </is>
       </c>
       <c r="F756">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G756">
         <v>0</v>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="F757">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         </is>
       </c>
       <c r="F758">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G758">
         <v>0</v>
@@ -24635,7 +24635,7 @@
         </is>
       </c>
       <c r="F759">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         </is>
       </c>
       <c r="F760">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G760">
         <v>0</v>
@@ -24699,7 +24699,7 @@
         </is>
       </c>
       <c r="F761">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G761">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         </is>
       </c>
       <c r="F762">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G762">
         <v>0</v>
@@ -24763,7 +24763,7 @@
         </is>
       </c>
       <c r="F763">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -24795,7 +24795,7 @@
         </is>
       </c>
       <c r="F764">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G764">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         </is>
       </c>
       <c r="F765">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G765">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="F766">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         </is>
       </c>
       <c r="F767">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G767">
         <v>0</v>
@@ -24923,7 +24923,7 @@
         </is>
       </c>
       <c r="F768">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G768">
         <v>0</v>
@@ -24955,7 +24955,7 @@
         </is>
       </c>
       <c r="F769">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G769">
         <v>0</v>
@@ -24987,7 +24987,7 @@
         </is>
       </c>
       <c r="F770">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         </is>
       </c>
       <c r="F771">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G771">
         <v>0</v>
@@ -25051,7 +25051,7 @@
         </is>
       </c>
       <c r="F772">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         </is>
       </c>
       <c r="F773">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -25115,7 +25115,7 @@
         </is>
       </c>
       <c r="F774">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G774">
         <v>0</v>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="F775">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G775">
         <v>0</v>
@@ -25179,7 +25179,7 @@
         </is>
       </c>
       <c r="F776">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G776">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         </is>
       </c>
       <c r="F777">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G777">
         <v>0</v>
@@ -25243,7 +25243,7 @@
         </is>
       </c>
       <c r="F778">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -25275,7 +25275,7 @@
         </is>
       </c>
       <c r="F779">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G779">
         <v>0</v>
@@ -25307,7 +25307,7 @@
         </is>
       </c>
       <c r="F780">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G780">
         <v>0</v>
@@ -25339,7 +25339,7 @@
         </is>
       </c>
       <c r="F781">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G781">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="F782">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G782">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         </is>
       </c>
       <c r="F783">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G783">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="F784">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G784">
         <v>0</v>
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="G785">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H785">
         <v>1</v>
@@ -25499,7 +25499,7 @@
         </is>
       </c>
       <c r="F786">
-        <v>1.779918954356945e-05</v>
+        <v>0</v>
       </c>
       <c r="G786">
         <v>0</v>
@@ -25531,7 +25531,7 @@
         </is>
       </c>
       <c r="F787">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G787">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         </is>
       </c>
       <c r="F788">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G788">
         <v>0</v>
@@ -25595,7 +25595,7 @@
         </is>
       </c>
       <c r="F789">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G789">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="G790">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H790">
         <v>1</v>
@@ -25659,7 +25659,7 @@
         </is>
       </c>
       <c r="F791">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G791">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         </is>
       </c>
       <c r="F792">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G792">
         <v>0</v>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="F793">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G793">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         </is>
       </c>
       <c r="F794">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G794">
         <v>0</v>
@@ -25790,7 +25790,7 @@
         <v>0</v>
       </c>
       <c r="G795">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H795">
         <v>1</v>
@@ -25819,7 +25819,7 @@
         </is>
       </c>
       <c r="F796">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G796">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         </is>
       </c>
       <c r="F797">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         </is>
       </c>
       <c r="F798">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         </is>
       </c>
       <c r="F799">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G799">
         <v>0</v>
@@ -25947,7 +25947,7 @@
         </is>
       </c>
       <c r="F800">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G800">
         <v>0</v>
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="G801">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H801">
         <v>1</v>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="F802">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G802">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         </is>
       </c>
       <c r="F803">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G803">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H803">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         </is>
       </c>
       <c r="F804">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G804">
         <v>0</v>
@@ -26107,7 +26107,7 @@
         </is>
       </c>
       <c r="F805">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G805">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         </is>
       </c>
       <c r="F806">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G806">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="F807">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G807">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         </is>
       </c>
       <c r="F808">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G808">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         </is>
       </c>
       <c r="F809">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G809">
         <v>0</v>
@@ -26267,7 +26267,7 @@
         </is>
       </c>
       <c r="F810">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -26302,7 +26302,7 @@
         <v>0</v>
       </c>
       <c r="G811">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H811">
         <v>1</v>
@@ -26331,7 +26331,7 @@
         </is>
       </c>
       <c r="F812">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G812">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="F813">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G813">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         </is>
       </c>
       <c r="F814">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G814">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         </is>
       </c>
       <c r="F815">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         </is>
       </c>
       <c r="F816">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G816">
         <v>0</v>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="G817">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H817">
         <v>1</v>
@@ -26523,7 +26523,7 @@
         </is>
       </c>
       <c r="F818">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G818">
         <v>0</v>
@@ -26555,7 +26555,7 @@
         </is>
       </c>
       <c r="F819">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="F820">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G820">
         <v>0</v>
@@ -26619,7 +26619,7 @@
         </is>
       </c>
       <c r="F821">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -26651,7 +26651,7 @@
         </is>
       </c>
       <c r="F822">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G822">
         <v>0</v>
@@ -26683,7 +26683,7 @@
         </is>
       </c>
       <c r="F823">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G823">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         </is>
       </c>
       <c r="F824">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G824">
         <v>0</v>
@@ -26747,7 +26747,7 @@
         </is>
       </c>
       <c r="F825">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G825">
         <v>0</v>
@@ -26779,7 +26779,7 @@
         </is>
       </c>
       <c r="F826">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G826">
         <v>0</v>
@@ -26811,7 +26811,7 @@
         </is>
       </c>
       <c r="F827">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G827">
         <v>0</v>
@@ -26843,7 +26843,7 @@
         </is>
       </c>
       <c r="F828">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G828">
         <v>0</v>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="F829">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G829">
         <v>0</v>
@@ -26907,7 +26907,7 @@
         </is>
       </c>
       <c r="F830">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G830">
         <v>0</v>
@@ -26939,7 +26939,7 @@
         </is>
       </c>
       <c r="F831">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="F832">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G832">
         <v>0</v>
@@ -27003,7 +27003,7 @@
         </is>
       </c>
       <c r="F833">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G833">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         </is>
       </c>
       <c r="F834">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G834">
         <v>0</v>
@@ -27067,7 +27067,7 @@
         </is>
       </c>
       <c r="F835">
-        <v>1.186612636237963e-05</v>
+        <v>0</v>
       </c>
       <c r="G835">
         <v>0</v>
@@ -27099,7 +27099,7 @@
         </is>
       </c>
       <c r="F836">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G836">
         <v>0</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="G837">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H837">
         <v>1</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="G838">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H838">
         <v>1</v>
@@ -27195,7 +27195,7 @@
         </is>
       </c>
       <c r="F839">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G839">
         <v>0</v>
@@ -27227,7 +27227,7 @@
         </is>
       </c>
       <c r="F840">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G840">
         <v>0</v>
@@ -27259,7 +27259,7 @@
         </is>
       </c>
       <c r="F841">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G841">
         <v>0</v>
@@ -27291,7 +27291,7 @@
         </is>
       </c>
       <c r="F842">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G842">
         <v>0</v>
@@ -27323,7 +27323,7 @@
         </is>
       </c>
       <c r="F843">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G843">
         <v>0</v>
@@ -27355,7 +27355,7 @@
         </is>
       </c>
       <c r="F844">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         </is>
       </c>
       <c r="F845">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G845">
         <v>0</v>
@@ -27419,7 +27419,7 @@
         </is>
       </c>
       <c r="F846">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G846">
         <v>0</v>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="F847">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G847">
         <v>0</v>
@@ -27483,7 +27483,7 @@
         </is>
       </c>
       <c r="F848">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G848">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         </is>
       </c>
       <c r="F849">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G849">
         <v>0</v>
@@ -27547,7 +27547,7 @@
         </is>
       </c>
       <c r="F850">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G850">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         </is>
       </c>
       <c r="F851">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G851">
         <v>0</v>
@@ -27611,7 +27611,7 @@
         </is>
       </c>
       <c r="F852">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G852">
         <v>0</v>
@@ -27643,7 +27643,7 @@
         </is>
       </c>
       <c r="F853">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         </is>
       </c>
       <c r="F854">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G854">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         </is>
       </c>
       <c r="F855">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G855">
         <v>0</v>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="F856">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G856">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="F857">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G857">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         </is>
       </c>
       <c r="F858">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G858">
         <v>0</v>
@@ -27835,7 +27835,7 @@
         </is>
       </c>
       <c r="F859">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G859">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         </is>
       </c>
       <c r="F860">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G860">
         <v>0</v>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="G861">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H861">
         <v>1</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="F862">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G862">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="G863">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H863">
         <v>1</v>
@@ -27995,7 +27995,7 @@
         </is>
       </c>
       <c r="F864">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G864">
         <v>0</v>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="F865">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G865">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         </is>
       </c>
       <c r="F866">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G866">
         <v>0</v>
@@ -28091,7 +28091,7 @@
         </is>
       </c>
       <c r="F867">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G867">
         <v>0</v>
@@ -28123,7 +28123,7 @@
         </is>
       </c>
       <c r="F868">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G868">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         </is>
       </c>
       <c r="F869">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G869">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         </is>
       </c>
       <c r="F870">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G870">
         <v>0</v>
@@ -28219,7 +28219,7 @@
         </is>
       </c>
       <c r="F871">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G871">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="G872">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H872">
         <v>1</v>
@@ -28283,7 +28283,7 @@
         </is>
       </c>
       <c r="F873">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G873">
         <v>0</v>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="F874">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G874">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         </is>
       </c>
       <c r="F875">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G875">
         <v>0</v>
@@ -28379,7 +28379,7 @@
         </is>
       </c>
       <c r="F876">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G876">
         <v>0</v>
@@ -28414,7 +28414,7 @@
         <v>0</v>
       </c>
       <c r="G877">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H877">
         <v>1</v>
@@ -28443,7 +28443,7 @@
         </is>
       </c>
       <c r="F878">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G878">
         <v>0</v>
@@ -28475,7 +28475,7 @@
         </is>
       </c>
       <c r="F879">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G879">
         <v>0</v>
@@ -28510,7 +28510,7 @@
         <v>0</v>
       </c>
       <c r="G880">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H880">
         <v>1</v>
@@ -28539,7 +28539,7 @@
         </is>
       </c>
       <c r="F881">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G881">
         <v>0</v>
@@ -28571,7 +28571,7 @@
         </is>
       </c>
       <c r="F882">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G882">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="F883">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -28635,7 +28635,7 @@
         </is>
       </c>
       <c r="F884">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G884">
         <v>0</v>
@@ -28667,7 +28667,7 @@
         </is>
       </c>
       <c r="F885">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G885">
         <v>0</v>
@@ -28699,7 +28699,7 @@
         </is>
       </c>
       <c r="F886">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G886">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         </is>
       </c>
       <c r="F887">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G887">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         </is>
       </c>
       <c r="F888">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         <v>0</v>
       </c>
       <c r="G889">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H889">
         <v>1</v>
@@ -28830,7 +28830,7 @@
         <v>0</v>
       </c>
       <c r="G890">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="H890">
         <v>1</v>
@@ -28859,7 +28859,7 @@
         </is>
       </c>
       <c r="F891">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="F892">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G892">
         <v>0</v>
@@ -28923,7 +28923,7 @@
         </is>
       </c>
       <c r="F893">
-        <v>5.933063181189816e-06</v>
+        <v>0</v>
       </c>
       <c r="G893">
         <v>0</v>
